--- a/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/Figur 4 Jernbanetransport SSB 10484.xlsx
+++ b/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/Figur 4 Jernbanetransport SSB 10484.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/ellen_just_hansen_vtfk_no/Documents/Dokumenter/GitHub/Telemark/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/kjell-tore_haustveit_telemarkfylke_no/Documents/GitHub/Telemark/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3FCC30-8505-4B00-889A-12E8F98798EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C5BE53-1098-47DF-8C2E-CEFAAB418BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24990" yWindow="4065" windowWidth="17610" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24876" yWindow="804" windowWidth="22488" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passasjerkilometer" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>10484: Persontransport med jernbane, etter togstrekning, statistikkvariabel og år</t>
   </si>
@@ -52,6 +65,9 @@
     <t>2022</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>260 InterCity - Oslo-Skien</t>
   </si>
   <si>
@@ -64,7 +80,7 @@
     <t>Transportarbeid (passasjerkm):</t>
   </si>
   <si>
-    <t>20230531 08:00</t>
+    <t>20240530 08:00</t>
   </si>
   <si>
     <t>Kilde:</t>
@@ -471,36 +487,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B1" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="10" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -525,10 +534,13 @@
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>301463776</v>
@@ -554,10 +566,13 @@
       <c r="I5" s="3">
         <v>382863998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>489976853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>274499861</v>
@@ -583,125 +598,128 @@
       <c r="I6" s="3">
         <v>177893572</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>186400759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
